--- a/XX_Url/Build_URL.xlsx
+++ b/XX_Url/Build_URL.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDDDE36-C238-4F8A-8326-ED36CD385CB5}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCFF335-CC4F-4919-8A5C-39725D42F39A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Build_URL" sheetId="2" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XX_Url/Build_URL.xlsx
+++ b/XX_Url/Build_URL.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCFF335-CC4F-4919-8A5C-39725D42F39A}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8044C91-AB79-440F-908D-B5A30B03CD08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
   <si>
     <t>Linea</t>
   </si>
@@ -31,9 +42,6 @@
     <t>Bowl Height</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -46,9 +54,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">123010000           </t>
-  </si>
-  <si>
     <t>Quantum</t>
   </si>
   <si>
@@ -58,84 +63,48 @@
     <t>https://www.build.com/mansfield-123/s1371791?uid=3238764&amp;searchId=0mmj3E9dNg</t>
   </si>
   <si>
-    <t xml:space="preserve">130010007           </t>
-  </si>
-  <si>
-    <t>Alto - 130</t>
-  </si>
-  <si>
     <t>Mansfield Alto Round Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-130/s1371793?uid=3238770&amp;searchId=kIhYBhnkcT</t>
   </si>
   <si>
-    <t xml:space="preserve">131900001           </t>
-  </si>
-  <si>
-    <t>Adriatic</t>
-  </si>
-  <si>
     <t>Mansfield Adriatic Elongated Comfort Height Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-1319/s1371799?uid=3238912&amp;searchId=vYk7W8pdtW</t>
   </si>
   <si>
-    <t xml:space="preserve">135010007           </t>
-  </si>
-  <si>
-    <t>Alto - 135</t>
-  </si>
-  <si>
     <t>Mansfield Alto Elongated Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-135/s1371800?uid=3238776&amp;searchId=17ZuZQzgZJ</t>
   </si>
   <si>
-    <t xml:space="preserve">137210040           </t>
-  </si>
-  <si>
-    <t>Alto - 137</t>
-  </si>
-  <si>
     <t>Mansfield Alto Elongated Comfort Height Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-137/s1371807?uid=3238787&amp;searchId=XtYHbmp53Z</t>
   </si>
   <si>
-    <t xml:space="preserve">147010000           </t>
-  </si>
-  <si>
     <t>Mansfield Quantum Elongated Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-147/s1371827?uid=3238800&amp;searchId=bnud3RuoWU</t>
   </si>
   <si>
-    <t xml:space="preserve">148010000           </t>
-  </si>
-  <si>
     <t>Mansfield Quantum Elongated Comfort Height Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-148/s1371828?uid=3238802&amp;searchId=8MKFZ5Itln</t>
   </si>
   <si>
-    <t xml:space="preserve">151010000           </t>
-  </si>
-  <si>
     <t>Rear Outlet</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-151/s1371830?uid=3238934&amp;searchId=qtA4H53ebQ</t>
   </si>
   <si>
-    <t xml:space="preserve">153010000           </t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -145,57 +114,30 @@
     <t>https://www.build.com/mansfield-153/s1371831?uid=3238805&amp;searchId=e5dVT4N528</t>
   </si>
   <si>
-    <t xml:space="preserve">155010000           </t>
-  </si>
-  <si>
     <t>Mansfield Quantum 1.28 GPF Toilet Tank Only</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-155/s1371833?uid=3238811&amp;searchId=L4K8vZGxud</t>
   </si>
   <si>
-    <t xml:space="preserve">160010007           </t>
-  </si>
-  <si>
-    <t>Alto - 160</t>
-  </si>
-  <si>
     <t>Mansfield Alto 1.6 GPF Toilet Tank Only</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-160/s1371834?uid=3238814&amp;searchId=5Y55CLP58U</t>
   </si>
   <si>
-    <t xml:space="preserve">173000000           </t>
-  </si>
-  <si>
-    <t>Alto - 173</t>
-  </si>
-  <si>
     <t>https://www.build.com/mansfield-173/s1371841?uid=3238830&amp;searchId=Nd7YBpGwVd</t>
   </si>
   <si>
-    <t xml:space="preserve">160010037           </t>
-  </si>
-  <si>
     <t>https://www.build.com/mansfield-180/s1371847?uid=3238947&amp;searchId=7B36h2W1Mm</t>
   </si>
   <si>
-    <t xml:space="preserve">317310000           </t>
-  </si>
-  <si>
-    <t>Alto - 3173</t>
-  </si>
-  <si>
     <t>Mansfield Alto 1.28 GPF Toilet Tank Only</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-3173/s1371925?uid=3238711&amp;searchId=Emep6dAInp</t>
   </si>
   <si>
-    <t xml:space="preserve">380010000           </t>
-  </si>
-  <si>
     <t>Summit</t>
   </si>
   <si>
@@ -205,36 +147,24 @@
     <t>https://www.build.com/mansfield-380/s1371951?uid=3239063&amp;searchId=wC98g54GuV</t>
   </si>
   <si>
-    <t xml:space="preserve">384010000           </t>
-  </si>
-  <si>
     <t>Mansfield Summit Elongated Comfort Height Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-384/s1371961?uid=3239070&amp;searchId=wAlrdKjhMs</t>
   </si>
   <si>
-    <t xml:space="preserve">386010000           </t>
-  </si>
-  <si>
     <t>Mansfield Summit 1.6 GPF Toilet Tank Only</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-386/s1371971?uid=3239076&amp;searchId=tcQLmDrVj6</t>
   </si>
   <si>
-    <t xml:space="preserve">387010000           </t>
-  </si>
-  <si>
     <t>Mansfield Summit 1.28 GPF Toilet Tank Only</t>
   </si>
   <si>
     <t>https://www.build.com/mansfield-387/s1371974?uid=3239079&amp;searchId=KcE0l2RBtI</t>
   </si>
   <si>
-    <t xml:space="preserve">388010000           </t>
-  </si>
-  <si>
     <t>Mansfield Summit Round Comfort Height Toilet Bowl Only - Less Seat</t>
   </si>
   <si>
@@ -253,9 +183,6 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Homólogo Mansfield</t>
-  </si>
-  <si>
     <t>Mansfield</t>
   </si>
   <si>
@@ -310,7 +237,121 @@
     <t>388010000</t>
   </si>
   <si>
-    <t>Round</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Alto 160</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 160 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Alto 173</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 173 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Alto 180</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 180 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Mansfield Summit 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>Alto 130</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Round Front</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 130 Std RF Bowl</t>
+  </si>
+  <si>
+    <t>Flushometer</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Mansfield Flushometer ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>Alto 135</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 135 Std EL Bowl</t>
+  </si>
+  <si>
+    <t>Alto 137</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 137 ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum Std EL Bowl</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>Quantum One</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum One 1 gpf Tank</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum 1,28 gpf Tank</t>
+  </si>
+  <si>
+    <t>Mansfield Alto 160 1,28 gpf Tank</t>
+  </si>
+  <si>
+    <t>Mansfield Summit Std RF Bowl</t>
+  </si>
+  <si>
+    <t>Mansfield Summit ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>Mansfield Summit 1,28 gpf Tank</t>
+  </si>
+  <si>
+    <t>Mansfield Summit ADA RF Bowl</t>
+  </si>
+  <si>
+    <t>160010007</t>
+  </si>
+  <si>
+    <t>173000000</t>
+  </si>
+  <si>
+    <t>160010037</t>
+  </si>
+  <si>
+    <t>Homologo Mansfield</t>
   </si>
 </sst>
 </file>
@@ -322,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +508,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -850,7 +898,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,21 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -888,29 +921,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1270,713 +1325,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="70.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="L4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="17">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="K18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="10">
         <v>1.6</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1.28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1.28</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="K20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1.6</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1.6</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1.6</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1.28</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="12">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="12">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1.28</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="12">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XX_Url/Build_URL.xlsx
+++ b/XX_Url/Build_URL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8044C91-AB79-440F-908D-B5A30B03CD08}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607BEFD1-CC35-4D65-AB7D-4C221F794126}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t>Linea</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Homologo Mansfield</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum ADA REAR EL Bowl</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +907,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,6 +974,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1355,7 @@
     <col min="8" max="8" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="23" customWidth="1"/>
     <col min="10" max="10" width="70.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="85.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="14"/>
   </cols>
@@ -1835,8 +1847,8 @@
       <c r="J13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>94</v>
+      <c r="K13" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>23</v>
